--- a/Data/survey_results_data.xlsx
+++ b/Data/survey_results_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niamh\Desktop\Capstone SBA22224\Capstone_SBA22224\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7734BCDE-4A56-4CB4-B95D-73C673F2CDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD94E4F-4E92-4B49-9304-5D00C4A3CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA13BE89-EF53-4491-BFC8-9FED79CA5C1F}"/>
+    <workbookView xWindow="-28920" yWindow="1155" windowWidth="29040" windowHeight="15720" xr2:uid="{AA13BE89-EF53-4491-BFC8-9FED79CA5C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3209,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3120B6A-9FC1-436A-93DA-AD6EAA672AA0}">
   <dimension ref="A1:H833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E835" sqref="E835"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3219,7 +3219,7 @@
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.6328125" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
